--- a/data/trans_camb/P11_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,63</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,38</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>5,4</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6,78</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 5,67</t>
+          <t>-4,39; 5,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 6,15</t>
+          <t>-4,08; 6,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,83; 12,82</t>
+          <t>-5,25; 5,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 3,63</t>
+          <t>3,04; 13,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 4,97</t>
+          <t>-4,8; 5,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 9,81</t>
+          <t>-4,65; 4,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 3,11</t>
+          <t>-3,61; 5,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 3,9</t>
+          <t>-5,02; 5,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 9,98</t>
+          <t>0,55; 9,64</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-4,5; 4,31</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 3,39</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,52; 4,41</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 3,39</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3,21; 10,45</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-3,25; 3,44</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>-0,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,09%</t>
+          <t>41,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,69%</t>
+          <t>-2,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-0,6%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>31,79%</t>
+          <t>26,01%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-0,63%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4,57%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-0,03%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>33,32%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,91; 33,31</t>
+          <t>-19,7; 33,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 34,06</t>
+          <t>-18,79; 34,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,3; 78,15</t>
+          <t>-23,48; 32,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,26; 19,65</t>
+          <t>13,16; 80,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,53; 26,25</t>
+          <t>-16,0; 23,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 52,22</t>
+          <t>-20,78; 22,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 17,14</t>
+          <t>-15,38; 26,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 20,89</t>
+          <t>-21,88; 28,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,49; 54,48</t>
+          <t>1,91; 52,78</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-15,64; 17,39</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-15,39; 19,26</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-11,2; 23,81</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-17,23; 18,53</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>14,15; 57,37</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-11,7; 13,72</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,71</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>3,87</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 9,59</t>
+          <t>-2,89; 8,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 11,1</t>
+          <t>-1,27; 11,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 16,74</t>
+          <t>-2,62; 10,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 4,93</t>
+          <t>-6,47; 7,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 1,23</t>
+          <t>-12,62; 3,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 2,9</t>
+          <t>-6,27; 4,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 5,25</t>
+          <t>-8,89; 2,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 4,72</t>
+          <t>-8,01; 3,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 7,71</t>
+          <t>-2,86; 11,37</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,83; 12,76</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,78; 5,24</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,32; 5,37</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 5,0</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,9; 7,86</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-6,67; 5,46</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>22,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>33,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>53,41%</t>
+          <t>23,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,11%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-18,52%</t>
+          <t>-18,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,11%</t>
+          <t>-4,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>-17,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>-11,3%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>19,98%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>27,68%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6,7%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4,36%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3,21%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11,48%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-0,11%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 73,84</t>
+          <t>-15,73; 69,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 85,65</t>
+          <t>-6,83; 91,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,34; 125,51</t>
+          <t>-15,84; 79,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,73; 25,73</t>
+          <t>-27,71; 47,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,1; 7,13</t>
+          <t>-44,06; 15,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,56; 15,31</t>
+          <t>-25,54; 25,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 31,58</t>
+          <t>-35,76; 11,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 28,14</t>
+          <t>-33,04; 18,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 43,55</t>
+          <t>-13,82; 67,63</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-12,87; 85,5</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-13,53; 30,95</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-15,81; 32,32</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-17,67; 31,05</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-14,09; 43,92</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-25,93; 27,53</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-2,32</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,74</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-1,68</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,82</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,89</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,78; 7,12</t>
+          <t>-18,39; 6,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,59; 5,96</t>
+          <t>-19,96; 5,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-19,19; 7,34</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-7,27; 9,15</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 7,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-7,59; 8,65</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-9,36; 6,88</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,22; 15,84</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-9,66; 5,79</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-9,63; 4,44</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-9,39; 4,83</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-9,64; 3,87</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-8,11; 7,95</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-10,14%</t>
+          <t>-14,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-19,76%</t>
+          <t>-21,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-15,97%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>4,3%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>3,15%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-4,53%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>31,26%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-2,87%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-11,49%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-5,5%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-12,72%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>8,04%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-69,23; 94,12</t>
+          <t>-72,11; 83,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-73,76; 76,83</t>
+          <t>-76,72; 77,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-74,51; 87,11</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-39,88; 91,02</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,96; 81,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-40,11; 77,85</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-48,68; 64,21</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-25,55; 138,03</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-47,03; 55,19</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-49,24; 44,25</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-46,33; 44,97</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-49,92; 38,83</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-41,76; 74,06</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,09</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>7,4</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>-0,51</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-1,33</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,52</t>
+          <t>5,39</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>6,38</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 5,14</t>
+          <t>-2,08; 5,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 6,34</t>
+          <t>-1,91; 6,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,79; 13,18</t>
+          <t>-2,65; 5,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 2,58</t>
+          <t>3,45; 11,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 1,97</t>
+          <t>-4,45; 4,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 7,72</t>
+          <t>-4,11; 2,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,72</t>
+          <t>-4,33; 2,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,74</t>
+          <t>-3,87; 3,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,04; 9,44</t>
+          <t>1,51; 8,78</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-3,11; 4,57</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 2,97</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 3,11</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 2,84</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>3,56; 9,14</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; 2,87</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>51,42%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,48%</t>
+          <t>39,22%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-6,48%</t>
+          <t>-1,89%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>-2,78%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>-4,75%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>-1,93%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>34,03%</t>
+          <t>26,79%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3,83%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>32,7%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 33,62</t>
+          <t>-10,91; 33,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 40,7</t>
+          <t>-9,64; 38,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22,7; 83,3</t>
+          <t>-13,56; 34,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 13,75</t>
+          <t>16,54; 69,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 10,56</t>
+          <t>-15,38; 17,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,25; 40,89</t>
+          <t>-18,15; 12,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 15,41</t>
+          <t>-18,92; 11,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 15,49</t>
+          <t>-17,22; 16,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19,67; 53,21</t>
+          <t>6,61; 47,81</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-11,37; 19,97</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-9,23; 16,7</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-9,47; 17,23</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-10,22; 16,01</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>17,16; 50,44</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-10,32; 11,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
